--- a/data/trans_bre/P24_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_4_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>8,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>6,63</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>174,4%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>98,54%</t>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,72</t>
+          <t>2,06; 16,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 8,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 16,12</t>
+          <t>1,93; 18,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 7,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 19,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>17,53</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>65,74%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-42,5%</t>
+          <t>133,31%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1595,94%</t>
         </is>
       </c>
     </row>
@@ -768,27 +814,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 11,07</t>
+          <t>1,62; 16,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 12,31</t>
+          <t>3,04; 21,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 12,48</t>
+          <t>-2,17; 21,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 2,69</t>
+          <t>-7,55; 6,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,04; 32,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,10 +844,20 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 541,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-32,07; 925,54</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>428,52%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>127,12%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14,01%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-5,89%</t>
         </is>
       </c>
     </row>
@@ -868,27 +934,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 6,38</t>
+          <t>-6,86; 5,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 6,13</t>
+          <t>0,9; 8,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 7,12</t>
+          <t>-3,2; 7,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,57</t>
+          <t>-8,27; 7,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-67,6; 507,81</t>
+          <t>-11,07; 9,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,12 +964,22 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-67,05; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,73; 370,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-82,44; 540,36</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-74,71; 208,97</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,59</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>135,03%</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>124,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>-7,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1236,05%</t>
+          <t>31,27%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>446,09%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>84,37%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 7,52</t>
+          <t>-2,28; 9,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 5,73</t>
+          <t>-9,03; 7,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 6,72</t>
+          <t>-4,89; 9,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 13,4</t>
+          <t>0,67; 11,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,12; 1031,05</t>
+          <t>-1,64; 17,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,54; 232,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,37; 413,71</t>
+          <t>-72,64; 170,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,62; 488,75</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-24,26; 361,65</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-7,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,99</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>299,25%</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>331,06%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-14,53%</t>
+          <t>235,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>128,12%</t>
+          <t>-48,93%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42,42%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,71</t>
+          <t>1,63; 14,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 14,35</t>
+          <t>-0,36; 18,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 6,36</t>
+          <t>-28,22; 4,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 16,95</t>
+          <t>-6,07; 15,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,3; 11,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 1753,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-83,91; 158,99</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 437,75</t>
+          <t>-100,0; 89,09</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-56,24; 428,39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-84,64; 538,88</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>16,32</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>140,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>51,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>179,28%</t>
+          <t>59,34%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>87,35%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>166,83%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 7,02</t>
+          <t>-5,46; 12,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 16,29</t>
+          <t>-10,12; 12,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 8,82</t>
+          <t>-8,34; 16,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 20,87</t>
+          <t>-7,57; 21,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-90,03; 466,9</t>
+          <t>-0,75; 33,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,79; 764,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,44; 459,16</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 1202,3</t>
+          <t>-77,09; 767,82</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-68,6; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-22,28; 1146,51</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>133,88%</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>159,4%</t>
+          <t>252,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>61,32%</t>
+          <t>100,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>137,48%</t>
+          <t>37,76%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>68,06%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>145,64%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,71</t>
+          <t>1,63; 6,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,57</t>
+          <t>-0,05; 6,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,3</t>
+          <t>-2,16; 6,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,75</t>
+          <t>-0,66; 6,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,42; 408,54</t>
+          <t>4,06; 13,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,74; 376,36</t>
+          <t>36,14; 1209,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 173,12</t>
+          <t>-14,82; 307,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,36; 330,67</t>
+          <t>-29,74; 165,22</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-14,84; 229,26</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>44,46; 320,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
